--- a/Table/Table_xls/技能相关表/s属性效果id表.xlsx
+++ b/Table/Table_xls/技能相关表/s属性效果id表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24920" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="702">
   <si>
     <r>
       <rPr>
@@ -1482,9 +1482,6 @@
     <t>blockratedegree_percent</t>
   </si>
   <si>
-    <t>590</t>
-  </si>
-  <si>
     <t>反震几率</t>
   </si>
   <si>
@@ -1495,9 +1492,6 @@
   </si>
   <si>
     <t>fanzhenrate_percent</t>
-  </si>
-  <si>
-    <t>600</t>
   </si>
   <si>
     <t>反震伤害系数</t>
@@ -2374,11 +2368,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2404,8 +2399,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2420,15 +2469,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2436,22 +2484,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2465,14 +2497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2480,7 +2505,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2496,17 +2521,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2518,40 +2543,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2593,19 +2588,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2617,91 +2624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2719,7 +2642,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2731,7 +2726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2743,37 +2750,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2818,21 +2813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2865,11 +2845,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2885,18 +2863,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2915,157 +2886,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3115,6 +3110,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3511,38 +3509,38 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.8761061946903" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8761061946903" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="12" width="16.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="16.2477876106195" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.2477876106195" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.6283185840708" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.2477876106195" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.6283185840708" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="4"/>
-    <col min="18" max="18" width="13.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="28.25" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="30.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.7522123893805" style="2" customWidth="1"/>
+    <col min="19" max="19" width="28.2477876106195" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.87610619469027" style="2" customWidth="1"/>
+    <col min="21" max="21" width="30.5044247787611" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.1238938053097" style="2" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21.5" style="2" customWidth="1"/>
+    <col min="24" max="24" width="21.5044247787611" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:24">
+    <row r="1" ht="14.35" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:23">
+    <row r="2" ht="15.3" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3682,7 +3680,7 @@
       </c>
       <c r="W2" s="15"/>
     </row>
-    <row r="3" ht="14.25" spans="1:23">
+    <row r="3" ht="15.3" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3748,7 +3746,7 @@
       </c>
       <c r="W3" s="15"/>
     </row>
-    <row r="4" ht="14.25" spans="1:23">
+    <row r="4" ht="15.3" spans="1:23">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -3814,7 +3812,7 @@
       </c>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" ht="14.25" spans="1:23">
+    <row r="5" ht="15.3" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -3880,7 +3878,7 @@
       </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" ht="14.25" spans="1:23">
+    <row r="6" ht="15.3" spans="1:23">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -4013,7 +4011,7 @@
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" ht="14.25" spans="1:24">
+    <row r="8" ht="15.3" spans="1:24">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -4077,7 +4075,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" ht="14.25" spans="1:23">
+    <row r="9" ht="15.3" spans="1:23">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -4210,7 +4208,7 @@
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" ht="14.25" spans="1:23">
+    <row r="11" ht="15.3" spans="1:23">
       <c r="A11" s="2" t="s">
         <v>101</v>
       </c>
@@ -4276,7 +4274,7 @@
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" ht="14.25" spans="1:24">
+    <row r="12" ht="15.3" spans="1:24">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -4343,7 +4341,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
     </row>
-    <row r="13" ht="14.25" spans="1:24">
+    <row r="13" ht="15.3" spans="1:24">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:24">
+    <row r="19" ht="15.3" spans="1:24">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -4810,7 +4808,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
     </row>
-    <row r="20" ht="14.25" spans="1:24">
+    <row r="20" ht="15.3" spans="1:24">
       <c r="A20" s="2" t="s">
         <v>177</v>
       </c>
@@ -4877,7 +4875,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
     </row>
-    <row r="21" ht="14.25" spans="1:24">
+    <row r="21" ht="15.3" spans="1:24">
       <c r="A21" s="2" t="s">
         <v>185</v>
       </c>
@@ -4999,7 +4997,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
     </row>
-    <row r="23" ht="14.25" spans="1:24">
+    <row r="23" ht="15.3" spans="1:24">
       <c r="A23" s="2" t="s">
         <v>199</v>
       </c>
@@ -5054,7 +5052,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
     </row>
-    <row r="24" ht="14.25" spans="1:23">
+    <row r="24" ht="15.3" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>204</v>
       </c>
@@ -5120,7 +5118,7 @@
       </c>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" ht="14.25" spans="1:23">
+    <row r="25" ht="15.3" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>212</v>
       </c>
@@ -5186,7 +5184,7 @@
       </c>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" ht="14.25" spans="1:24">
+    <row r="26" ht="15.3" spans="1:24">
       <c r="A26" s="2" t="s">
         <v>220</v>
       </c>
@@ -5214,8 +5212,8 @@
       <c r="I26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="7">
-        <v>3</v>
+      <c r="J26" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -5253,7 +5251,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" ht="14.25" spans="1:23">
+    <row r="27" ht="15.3" spans="1:23">
       <c r="A27" s="2" t="s">
         <v>228</v>
       </c>
@@ -5319,7 +5317,7 @@
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" ht="14.25" spans="1:23">
+    <row r="28" ht="15.3" spans="1:23">
       <c r="A28" s="2" t="s">
         <v>236</v>
       </c>
@@ -5385,7 +5383,7 @@
       </c>
       <c r="W28" s="15"/>
     </row>
-    <row r="29" ht="14.25" spans="1:23">
+    <row r="29" ht="15.3" spans="1:23">
       <c r="A29" s="2" t="s">
         <v>244</v>
       </c>
@@ -5413,8 +5411,8 @@
       <c r="I29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="7">
-        <v>3</v>
+      <c r="J29" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -5451,7 +5449,7 @@
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" ht="14.25" spans="1:23">
+    <row r="30" ht="15.3" spans="1:23">
       <c r="A30" s="2" t="s">
         <v>252</v>
       </c>
@@ -5517,7 +5515,7 @@
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" ht="14.25" spans="1:23">
+    <row r="31" ht="15.3" spans="1:23">
       <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
@@ -5545,8 +5543,8 @@
       <c r="I31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="7">
-        <v>3</v>
+      <c r="J31" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -5583,7 +5581,7 @@
       </c>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" ht="14.25" spans="1:24">
+    <row r="32" ht="15.3" spans="1:24">
       <c r="A32" s="2" t="s">
         <v>268</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:23">
+    <row r="36" ht="15.3" spans="1:23">
       <c r="A36" s="2" t="s">
         <v>288</v>
       </c>
@@ -5851,7 +5849,7 @@
       </c>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" ht="14.25" spans="1:23">
+    <row r="37" ht="15.3" spans="1:23">
       <c r="A37" s="2" t="s">
         <v>293</v>
       </c>
@@ -5905,7 +5903,7 @@
       </c>
       <c r="W37" s="15"/>
     </row>
-    <row r="38" ht="14.25" spans="1:23">
+    <row r="38" ht="15.3" spans="1:23">
       <c r="A38" s="2" t="s">
         <v>298</v>
       </c>
@@ -5959,7 +5957,7 @@
       </c>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" ht="14.25" spans="1:23">
+    <row r="39" ht="15.3" spans="1:23">
       <c r="A39" s="2" t="s">
         <v>303</v>
       </c>
@@ -6013,7 +6011,7 @@
       </c>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" ht="14.25" spans="1:23">
+    <row r="40" ht="15.3" spans="1:23">
       <c r="A40" s="2" t="s">
         <v>308</v>
       </c>
@@ -6332,7 +6330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:24">
+    <row r="46" ht="15.3" spans="1:24">
       <c r="A46" s="2" t="s">
         <v>338</v>
       </c>
@@ -6387,7 +6385,7 @@
       <c r="W46" s="15"/>
       <c r="X46" s="15"/>
     </row>
-    <row r="47" ht="14.25" spans="1:24">
+    <row r="47" ht="15.3" spans="1:24">
       <c r="A47" s="2" t="s">
         <v>343</v>
       </c>
@@ -6442,7 +6440,7 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" ht="14.25" spans="1:24">
+    <row r="48" ht="15.3" spans="1:24">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
@@ -6497,7 +6495,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" ht="14.25" spans="1:24">
+    <row r="49" ht="15.3" spans="1:24">
       <c r="A49" s="2" t="s">
         <v>353</v>
       </c>
@@ -6658,7 +6656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:24">
+    <row r="52" ht="15.3" spans="1:24">
       <c r="A52" s="2" t="s">
         <v>368</v>
       </c>
@@ -6766,7 +6764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:24">
+    <row r="54" ht="15.3" spans="1:24">
       <c r="A54" s="2" t="s">
         <v>378</v>
       </c>
@@ -6874,7 +6872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:23">
+    <row r="56" ht="15.3" spans="1:23">
       <c r="A56" s="2" t="s">
         <v>388</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:23">
+    <row r="58" ht="15.3" spans="1:23">
       <c r="A58" s="2" t="s">
         <v>398</v>
       </c>
@@ -7035,7 +7033,7 @@
       </c>
       <c r="W58" s="15"/>
     </row>
-    <row r="59" ht="14.25" spans="1:23">
+    <row r="59" ht="15.3" spans="1:23">
       <c r="A59" s="2" t="s">
         <v>403</v>
       </c>
@@ -7073,13 +7071,13 @@
         <v>0.3</v>
       </c>
       <c r="R59" s="7">
-        <v>581</v>
+        <v>1801</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>406</v>
       </c>
       <c r="T59" s="2">
-        <v>582</v>
+        <v>1802</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>407</v>
@@ -7089,54 +7087,54 @@
       </c>
       <c r="W59" s="15"/>
     </row>
-    <row r="60" ht="14.25" spans="1:24">
-      <c r="A60" s="2" t="s">
+    <row r="60" ht="15.3" spans="1:24">
+      <c r="A60" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P60" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="2">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P60" s="2" t="s">
+      <c r="Q60" s="14">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>1811</v>
+      </c>
+      <c r="S60" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="Q60" s="14">
-        <v>0</v>
-      </c>
-      <c r="R60" s="7">
-        <v>591</v>
-      </c>
-      <c r="S60" s="2" t="s">
+      <c r="T60" s="2">
+        <v>1812</v>
+      </c>
+      <c r="U60" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="T60" s="2">
-        <v>592</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>34</v>
@@ -7144,39 +7142,39 @@
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
     </row>
-    <row r="61" ht="14.25" spans="1:24">
-      <c r="A61" s="2" t="s">
+    <row r="61" ht="15.3" spans="1:24">
+      <c r="A61" s="2">
+        <v>1810</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="2">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="Q61" s="14">
         <v>0</v>
@@ -7185,13 +7183,13 @@
         <v>601</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="T61" s="2">
         <v>602</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>34</v>
@@ -7199,39 +7197,39 @@
       <c r="W61" s="15"/>
       <c r="X61" s="15"/>
     </row>
-    <row r="62" ht="14.25" spans="1:24">
+    <row r="62" ht="15.3" spans="1:24">
       <c r="A62" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P62" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="Q62" s="14">
         <v>0.03</v>
@@ -7240,13 +7238,13 @@
         <v>611</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="T62" s="2">
         <v>612</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>34</v>
@@ -7254,39 +7252,39 @@
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
     </row>
-    <row r="63" ht="14.25" spans="1:23">
+    <row r="63" ht="15.3" spans="1:23">
       <c r="A63" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="Q63" s="14">
         <v>0.5</v>
@@ -7295,52 +7293,52 @@
         <v>621</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T63" s="2">
         <v>622</v>
       </c>
       <c r="U63" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W63" s="15"/>
+    </row>
+    <row r="64" ht="15.3" spans="1:24">
+      <c r="A64" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W63" s="15"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:24">
-      <c r="A64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="2">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="Q64" s="14">
         <v>0</v>
@@ -7349,13 +7347,13 @@
         <v>631</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T64" s="2">
         <v>632</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>34</v>
@@ -7363,39 +7361,39 @@
       <c r="W64" s="15"/>
       <c r="X64" s="15"/>
     </row>
-    <row r="65" ht="14.25" spans="1:24">
+    <row r="65" ht="15.3" spans="1:24">
       <c r="A65" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P65" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="Q65" s="14">
         <v>0</v>
@@ -7404,13 +7402,13 @@
         <v>641</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="T65" s="2">
         <v>642</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>34</v>
@@ -7418,39 +7416,39 @@
       <c r="W65" s="15"/>
       <c r="X65" s="15"/>
     </row>
-    <row r="66" ht="14.25" spans="1:24">
+    <row r="66" ht="15.3" spans="1:24">
       <c r="A66" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P66" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="Q66" s="14">
         <v>0</v>
@@ -7459,13 +7457,13 @@
         <v>651</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T66" s="2">
         <v>652</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>34</v>
@@ -7473,39 +7471,39 @@
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
     </row>
-    <row r="67" ht="14.25" spans="1:24">
+    <row r="67" ht="15.3" spans="1:24">
       <c r="A67" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="Q67" s="14">
         <v>0</v>
@@ -7514,13 +7512,13 @@
         <v>661</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T67" s="2">
         <v>662</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>34</v>
@@ -7528,39 +7526,39 @@
       <c r="W67" s="15"/>
       <c r="X67" s="15"/>
     </row>
-    <row r="68" ht="14.25" spans="1:24">
+    <row r="68" ht="15.3" spans="1:24">
       <c r="A68" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="2">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="Q68" s="14">
         <v>0</v>
@@ -7569,13 +7567,13 @@
         <v>671</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T68" s="2">
         <v>672</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>34</v>
@@ -7583,39 +7581,39 @@
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
     </row>
-    <row r="69" ht="14.25" spans="1:24">
+    <row r="69" ht="15.3" spans="1:24">
       <c r="A69" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="Q69" s="14">
         <v>0</v>
@@ -7624,13 +7622,13 @@
         <v>681</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="T69" s="2">
         <v>682</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>34</v>
@@ -7638,39 +7636,39 @@
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
     </row>
-    <row r="70" ht="14.25" spans="1:23">
+    <row r="70" ht="15.3" spans="1:23">
       <c r="A70" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P70" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="2">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="Q70" s="14">
         <v>0</v>
@@ -7679,13 +7677,13 @@
         <v>691</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="T70" s="2">
         <v>692</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="V70" s="2" t="s">
         <v>34</v>
@@ -7694,37 +7692,37 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P71" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="2">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="Q71" s="14">
         <v>0</v>
@@ -7733,13 +7731,13 @@
         <v>701</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T71" s="2">
         <v>702</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="V71" s="2" t="s">
         <v>34</v>
@@ -7747,37 +7745,37 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P72" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="Q72" s="14">
         <v>0</v>
@@ -7786,13 +7784,13 @@
         <v>711</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="T72" s="2">
         <v>712</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V72" s="2" t="s">
         <v>34</v>
@@ -7800,37 +7798,37 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="Q73" s="14">
         <v>0</v>
@@ -7839,13 +7837,13 @@
         <v>721</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="T73" s="2">
         <v>722</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>34</v>
@@ -7853,37 +7851,37 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="2">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="Q74" s="14">
         <v>0</v>
@@ -7892,13 +7890,13 @@
         <v>731</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="T74" s="2">
         <v>732</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="V74" s="2" t="s">
         <v>34</v>
@@ -7906,37 +7904,37 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="2">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="Q75" s="14">
         <v>0</v>
@@ -7945,13 +7943,13 @@
         <v>741</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="T75" s="2">
         <v>742</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="V75" s="2" t="s">
         <v>34</v>
@@ -7959,37 +7957,37 @@
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P76" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="2">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="Q76" s="14">
         <v>0</v>
@@ -7998,13 +7996,13 @@
         <v>751</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="T76" s="2">
         <v>752</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>34</v>
@@ -8012,37 +8010,37 @@
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P77" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="2">
-        <v>0</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="Q77" s="14">
         <v>0</v>
@@ -8051,13 +8049,13 @@
         <v>761</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T77" s="2">
         <v>762</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="V77" s="2" t="s">
         <v>34</v>
@@ -8065,37 +8063,37 @@
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P78" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="2">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="Q78" s="14">
         <v>0</v>
@@ -8104,13 +8102,13 @@
         <v>771</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="T78" s="2">
         <v>772</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="V78" s="2" t="s">
         <v>34</v>
@@ -8118,37 +8116,37 @@
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P79" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="2">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="Q79" s="14">
         <v>0</v>
@@ -8157,51 +8155,51 @@
         <v>781</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T79" s="2">
         <v>782</v>
       </c>
       <c r="U79" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" ht="15.3" spans="1:24">
+      <c r="A80" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" spans="1:24">
-      <c r="A80" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P80" s="12" t="s">
         <v>508</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="2">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P80" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="Q80" s="14">
         <v>0</v>
@@ -8210,13 +8208,13 @@
         <v>791</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="T80" s="2">
         <v>792</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>34</v>
@@ -8224,39 +8222,39 @@
       <c r="W80" s="15"/>
       <c r="X80" s="15"/>
     </row>
-    <row r="81" ht="14.25" spans="1:23">
+    <row r="81" ht="15.3" spans="1:23">
       <c r="A81" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P81" s="12" t="s">
         <v>513</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="2">
-        <v>0</v>
-      </c>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P81" s="12" t="s">
-        <v>515</v>
       </c>
       <c r="Q81" s="14">
         <v>0</v>
@@ -8265,31 +8263,31 @@
         <v>801</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="T81" s="2">
         <v>802</v>
       </c>
       <c r="U81" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W81" s="15"/>
+    </row>
+    <row r="82" ht="15.3" spans="1:23">
+      <c r="A82" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="V81" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W81" s="15"/>
-    </row>
-    <row r="82" ht="14.25" spans="1:23">
-      <c r="A82" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>70</v>
@@ -8310,7 +8308,7 @@
         <v>27</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q82" s="14">
         <v>0</v>
@@ -8319,31 +8317,31 @@
         <v>811</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="T82" s="2">
         <v>812</v>
       </c>
       <c r="U82" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W82" s="15"/>
+    </row>
+    <row r="83" ht="15.3" spans="1:23">
+      <c r="A83" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="V82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W82" s="15"/>
-    </row>
-    <row r="83" ht="14.25" spans="1:23">
-      <c r="A83" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>70</v>
@@ -8364,7 +8362,7 @@
         <v>27</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q83" s="14">
         <v>0</v>
@@ -8373,13 +8371,13 @@
         <v>821</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="T83" s="2">
         <v>822</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>34</v>
@@ -8388,37 +8386,37 @@
     </row>
     <row r="84" ht="15" customHeight="1" spans="1:24">
       <c r="A84" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P84" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="2">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="Q84" s="14">
         <v>0</v>
@@ -8427,13 +8425,13 @@
         <v>831</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="T84" s="2">
         <v>832</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>34</v>
@@ -8443,37 +8441,37 @@
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:24">
       <c r="A85" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="2">
-        <v>0</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="Q85" s="14">
         <v>0</v>
@@ -8482,13 +8480,13 @@
         <v>841</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="T85" s="2">
         <v>842</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>34</v>
@@ -8496,39 +8494,39 @@
       <c r="W85" s="15"/>
       <c r="X85" s="15"/>
     </row>
-    <row r="86" ht="14.25" spans="1:24">
+    <row r="86" ht="15.3" spans="1:24">
       <c r="A86" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P86" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="2">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="Q86" s="14">
         <v>0</v>
@@ -8537,13 +8535,13 @@
         <v>851</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="T86" s="2">
         <v>852</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>34</v>
@@ -8551,39 +8549,39 @@
       <c r="W86" s="15"/>
       <c r="X86" s="15"/>
     </row>
-    <row r="87" ht="14.25" spans="1:24">
+    <row r="87" ht="15.3" spans="1:24">
       <c r="A87" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="2">
-        <v>0</v>
-      </c>
-      <c r="H87" s="2">
-        <v>0</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="Q87" s="14">
         <v>0</v>
@@ -8592,13 +8590,13 @@
         <v>861</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="T87" s="2">
         <v>862</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>34</v>
@@ -8606,39 +8604,39 @@
       <c r="W87" s="15"/>
       <c r="X87" s="15"/>
     </row>
-    <row r="88" ht="14.25" spans="1:23">
+    <row r="88" ht="15.3" spans="1:23">
       <c r="A88" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P88" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="2">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="Q88" s="14">
         <v>0</v>
@@ -8647,52 +8645,52 @@
         <v>871</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T88" s="2">
         <v>872</v>
       </c>
       <c r="U88" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W88" s="15"/>
+    </row>
+    <row r="89" ht="15.3" spans="1:23">
+      <c r="A89" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W88" s="15"/>
-    </row>
-    <row r="89" ht="14.25" spans="1:23">
-      <c r="A89" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P89" s="12" t="s">
         <v>555</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="2">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <v>0</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P89" s="12" t="s">
-        <v>557</v>
       </c>
       <c r="Q89" s="14">
         <v>0</v>
@@ -8701,13 +8699,13 @@
         <v>881</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T89" s="2">
         <v>882</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="V89" s="2" t="s">
         <v>34</v>
@@ -8716,37 +8714,37 @@
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P90" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="Q90" s="14">
         <v>0</v>
@@ -8755,13 +8753,13 @@
         <v>891</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="T90" s="2">
         <v>892</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>34</v>
@@ -8769,37 +8767,37 @@
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P91" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="2">
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="Q91" s="14">
         <v>0</v>
@@ -8808,13 +8806,13 @@
         <v>901</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="T91" s="2">
         <v>902</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>34</v>
@@ -8822,37 +8820,37 @@
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P92" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="2">
-        <v>0</v>
-      </c>
-      <c r="H92" s="2">
-        <v>0</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="Q92" s="14">
         <v>0</v>
@@ -8861,51 +8859,51 @@
         <v>911</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="T92" s="2">
         <v>912</v>
       </c>
       <c r="U92" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" ht="15.3" spans="1:24">
+      <c r="A93" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" spans="1:24">
-      <c r="A93" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P93" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="2">
-        <v>0</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="Q93" s="14">
         <v>0</v>
@@ -8914,13 +8912,13 @@
         <v>921</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="T93" s="2">
         <v>922</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="V93" s="2" t="s">
         <v>34</v>
@@ -8928,39 +8926,39 @@
       <c r="W93" s="15"/>
       <c r="X93" s="15"/>
     </row>
-    <row r="94" ht="14.25" spans="1:24">
+    <row r="94" ht="15.3" spans="1:24">
       <c r="A94" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P94" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="2">
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="Q94" s="14">
         <v>0</v>
@@ -8969,13 +8967,13 @@
         <v>931</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="T94" s="2">
         <v>932</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="V94" s="2" t="s">
         <v>34</v>
@@ -8983,39 +8981,39 @@
       <c r="W94" s="15"/>
       <c r="X94" s="15"/>
     </row>
-    <row r="95" ht="14.25" spans="1:24">
+    <row r="95" ht="15.3" spans="1:24">
       <c r="A95" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P95" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="2">
-        <v>0</v>
-      </c>
-      <c r="H95" s="2">
-        <v>0</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="Q95" s="14">
         <v>0</v>
@@ -9024,13 +9022,13 @@
         <v>941</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="T95" s="2">
         <v>942</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="V95" s="2" t="s">
         <v>34</v>
@@ -9038,12 +9036,12 @@
       <c r="W95" s="15"/>
       <c r="X95" s="15"/>
     </row>
-    <row r="96" ht="14.25" spans="1:23">
+    <row r="96" ht="15.3" spans="1:23">
       <c r="A96" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>26</v>
@@ -9073,16 +9071,16 @@
         <v>1</v>
       </c>
       <c r="M96" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="O96" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="P96" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="Q96" s="14">
         <v>0</v>
@@ -9091,25 +9089,25 @@
         <v>951</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="T96" s="2">
         <v>952</v>
       </c>
       <c r="U96" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W96" s="15"/>
+    </row>
+    <row r="97" ht="15.3" spans="1:23">
+      <c r="A97" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B97" s="18" t="s">
         <v>597</v>
-      </c>
-      <c r="V96" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W96" s="15"/>
-    </row>
-    <row r="97" ht="14.25" spans="1:23">
-      <c r="A97" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>599</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>26</v>
@@ -9139,16 +9137,16 @@
         <v>1</v>
       </c>
       <c r="M97" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="O97" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="P97" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="Q97" s="14">
         <v>0</v>
@@ -9157,25 +9155,25 @@
         <v>961</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="T97" s="2">
         <v>962</v>
       </c>
       <c r="U97" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W97" s="15"/>
+    </row>
+    <row r="98" ht="15.3" spans="1:23">
+      <c r="A98" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>605</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W97" s="15"/>
-    </row>
-    <row r="98" ht="14.25" spans="1:23">
-      <c r="A98" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>607</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>26</v>
@@ -9205,16 +9203,16 @@
         <v>1</v>
       </c>
       <c r="M98" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="O98" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="P98" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="Q98" s="14">
         <v>0</v>
@@ -9223,25 +9221,25 @@
         <v>971</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="T98" s="2">
         <v>972</v>
       </c>
       <c r="U98" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W98" s="15"/>
+    </row>
+    <row r="99" ht="15.3" spans="1:23">
+      <c r="A99" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B99" s="18" t="s">
         <v>613</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W98" s="15"/>
-    </row>
-    <row r="99" ht="14.25" spans="1:23">
-      <c r="A99" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>615</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>26</v>
@@ -9271,16 +9269,16 @@
         <v>1</v>
       </c>
       <c r="M99" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="O99" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="P99" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="Q99" s="14">
         <v>0</v>
@@ -9289,25 +9287,25 @@
         <v>981</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="T99" s="2">
         <v>982</v>
       </c>
       <c r="U99" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W99" s="15"/>
+    </row>
+    <row r="100" ht="15.3" spans="1:23">
+      <c r="A100" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B100" s="18" t="s">
         <v>621</v>
-      </c>
-      <c r="V99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W99" s="15"/>
-    </row>
-    <row r="100" ht="14.25" spans="1:23">
-      <c r="A100" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>623</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>26</v>
@@ -9337,16 +9335,16 @@
         <v>1</v>
       </c>
       <c r="M100" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="N100" s="2" t="s">
+      <c r="P100" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="P100" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="Q100" s="14">
         <v>0</v>
@@ -9355,25 +9353,25 @@
         <v>991</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="T100" s="2">
         <v>992</v>
       </c>
       <c r="U100" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W100" s="15"/>
+    </row>
+    <row r="101" ht="15.3" spans="1:23">
+      <c r="A101" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>629</v>
-      </c>
-      <c r="V100" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W100" s="15"/>
-    </row>
-    <row r="101" ht="14.25" spans="1:23">
-      <c r="A101" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>631</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>26</v>
@@ -9403,16 +9401,16 @@
         <v>1</v>
       </c>
       <c r="M101" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="O101" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="P101" s="12" t="s">
         <v>633</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="P101" s="12" t="s">
-        <v>635</v>
       </c>
       <c r="Q101" s="14">
         <v>0</v>
@@ -9421,64 +9419,64 @@
         <v>1001</v>
       </c>
       <c r="S101" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T101" s="2">
         <v>1002</v>
       </c>
       <c r="U101" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="V101" s="2" t="s">
         <v>34</v>
       </c>
       <c r="W101" s="15"/>
     </row>
-    <row r="102" ht="14.25" spans="1:23">
+    <row r="102" ht="15.3" spans="1:23">
       <c r="A102" s="7">
         <v>1010</v>
       </c>
       <c r="B102" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="M102" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="N102" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="2">
-        <v>0</v>
-      </c>
-      <c r="H102" s="2">
-        <v>0</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L102" s="2">
-        <v>0</v>
-      </c>
-      <c r="M102" s="12" t="s">
+      <c r="O102" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="N102" s="12" t="s">
+      <c r="P102" s="12" t="s">
         <v>640</v>
-      </c>
-      <c r="O102" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="P102" s="12" t="s">
-        <v>642</v>
       </c>
       <c r="Q102" s="14">
         <v>0</v>
@@ -9487,25 +9485,25 @@
         <v>1011</v>
       </c>
       <c r="S102" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="T102" s="2">
         <v>1012</v>
       </c>
       <c r="U102" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="V102" s="2" t="s">
         <v>34</v>
       </c>
       <c r="W102" s="15"/>
     </row>
-    <row r="103" ht="14.25" spans="1:24">
+    <row r="103" ht="15.3" spans="1:24">
       <c r="A103" s="7">
         <v>1020</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>26</v>
@@ -9535,7 +9533,7 @@
       <c r="N103" s="12"/>
       <c r="O103" s="12"/>
       <c r="P103" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q103" s="14">
         <v>0</v>
@@ -9544,13 +9542,13 @@
         <v>1021</v>
       </c>
       <c r="S103" s="12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="T103" s="2">
         <v>1022</v>
       </c>
       <c r="U103" s="12" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="V103" s="2" t="s">
         <v>34</v>
@@ -9560,10 +9558,10 @@
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:23">
       <c r="A104" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>26</v>
@@ -9593,16 +9591,16 @@
         <v>1</v>
       </c>
       <c r="M104" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="O104" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="P104" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="O104" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="Q104" s="14">
         <v>0</v>
@@ -9611,25 +9609,25 @@
         <v>2131</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="T104" s="2">
         <v>2132</v>
       </c>
       <c r="U104" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W104" s="15"/>
+    </row>
+    <row r="105" ht="15.3" spans="1:23">
+      <c r="A105" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="V104" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W104" s="15"/>
-    </row>
-    <row r="105" ht="14.25" spans="1:23">
-      <c r="A105" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>658</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>26</v>
@@ -9659,16 +9657,16 @@
         <v>1</v>
       </c>
       <c r="M105" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="O105" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="N105" s="2" t="s">
+      <c r="P105" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="Q105" s="14">
         <v>0</v>
@@ -9677,13 +9675,13 @@
         <v>2141</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="T105" s="2">
         <v>2142</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="V105" s="2" t="s">
         <v>34</v>
@@ -9695,7 +9693,7 @@
         <v>2150</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>26</v>
@@ -9722,25 +9720,25 @@
         <v>27</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q106" s="14">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R106" s="7">
         <v>2151</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="T106" s="2">
         <v>2152</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="V106" s="2" t="s">
-        <v>34</v>
+        <v>665</v>
+      </c>
+      <c r="V106" s="23">
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -9748,7 +9746,7 @@
         <v>2160</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>26</v>
@@ -9775,25 +9773,25 @@
         <v>27</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q107" s="14">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R107" s="7">
         <v>2161</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="T107" s="2">
         <v>2162</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="V107" s="2" t="s">
-        <v>34</v>
+        <v>669</v>
+      </c>
+      <c r="V107" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -9801,7 +9799,7 @@
         <v>2170</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>26</v>
@@ -9828,22 +9826,22 @@
         <v>27</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Q108" s="14">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R108" s="7">
         <v>2171</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="T108" s="2">
         <v>2172</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="V108" s="2" t="s">
         <v>34</v>
@@ -9854,7 +9852,7 @@
         <v>2180</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>26</v>
@@ -9881,7 +9879,7 @@
         <v>27</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Q109" s="14">
         <v>0</v>
@@ -9890,240 +9888,240 @@
         <v>2181</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="T109" s="2">
         <v>2182</v>
       </c>
       <c r="U109" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="15.3" spans="1:23">
+      <c r="A110" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B110" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="V109" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P110" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="Q110" s="21">
+        <v>0</v>
+      </c>
+      <c r="R110" s="24">
+        <v>1171</v>
+      </c>
+      <c r="S110" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q110" s="21">
-        <v>0</v>
-      </c>
-      <c r="R110" s="23">
-        <v>1171</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="T110" s="1">
         <v>1172</v>
       </c>
       <c r="U110" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W110" s="15"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="15.3" spans="1:23">
+      <c r="A111" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B111" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W110" s="15"/>
-    </row>
-    <row r="111" s="1" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P111" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="Q111" s="21">
+        <v>0</v>
+      </c>
+      <c r="R111" s="24">
+        <v>1181</v>
+      </c>
+      <c r="S111" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q111" s="21">
-        <v>0</v>
-      </c>
-      <c r="R111" s="23">
-        <v>1181</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="T111" s="1">
         <v>1182</v>
       </c>
       <c r="U111" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="V111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W111" s="15"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="15.3" spans="1:23">
+      <c r="A112" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B112" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W111" s="15"/>
-    </row>
-    <row r="112" s="1" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P112" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="Q112" s="21">
+        <v>0</v>
+      </c>
+      <c r="R112" s="24">
+        <v>1581</v>
+      </c>
+      <c r="S112" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
-      <c r="H112" s="1">
-        <v>0</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q112" s="21">
-        <v>0</v>
-      </c>
-      <c r="R112" s="23">
-        <v>1581</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="T112" s="1">
         <v>1582</v>
       </c>
       <c r="U112" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W112" s="15"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="15.3" spans="1:23">
+      <c r="A113" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B113" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W112" s="15"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="14.25" spans="1:23">
-      <c r="A113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P113" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="Q113" s="21">
+        <v>0</v>
+      </c>
+      <c r="R113" s="24">
+        <v>1591</v>
+      </c>
+      <c r="S113" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q113" s="21">
-        <v>0</v>
-      </c>
-      <c r="R113" s="23">
-        <v>1591</v>
-      </c>
-      <c r="S113" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="T113" s="1">
         <v>1592</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="V113" s="1" t="s">
         <v>34</v>
       </c>
       <c r="W113" s="15"/>
     </row>
-    <row r="114" ht="14.25" spans="1:23">
+    <row r="114" ht="15.3" spans="1:23">
       <c r="A114" s="2">
         <v>3000</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>26</v>
@@ -10150,7 +10148,7 @@
         <v>27</v>
       </c>
       <c r="P114" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="Q114" s="14">
         <v>0</v>
@@ -10159,13 +10157,13 @@
         <v>3001</v>
       </c>
       <c r="S114" s="12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="T114" s="2">
         <v>3002</v>
       </c>
       <c r="U114" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="V114" s="2" t="s">
         <v>34</v>
@@ -10192,7 +10190,7 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -10209,7 +10207,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/Table/Table_xls/技能相关表/s属性效果id表.xlsx
+++ b/Table/Table_xls/技能相关表/s属性效果id表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\mt\project_table\Table\Table_xls\技能相关表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A37072-26F0-447F-8204-8D4EBD0EEB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24920" windowHeight="10740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$X$1:$X$131</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B103" authorId="0">
+    <comment ref="B103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="714">
   <si>
     <r>
       <rPr>
@@ -321,7 +327,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -2362,20 +2368,111 @@
   </si>
   <si>
     <t>shapeid_percent</t>
+  </si>
+  <si>
+    <t>宠物攻击资质</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御资质</t>
+  </si>
+  <si>
+    <t>宠物速度资质</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zizhi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ongjizz_value</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyuzz_value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>suduzz_value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>est_1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>est_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>est_3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2396,164 +2493,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2566,8 +2512,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2586,194 +2545,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2812,255 +2585,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3110,68 +2641,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3500,47 +2989,46 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="S110" sqref="S110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.8761061946903" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8761061946903" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="12" width="16.2477876106195" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.2477876106195" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.6283185840708" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.2477876106195" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.6283185840708" style="2" customWidth="1"/>
+    <col min="11" max="12" width="16.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.625" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="4"/>
-    <col min="18" max="18" width="13.7522123893805" style="2" customWidth="1"/>
-    <col min="19" max="19" width="28.2477876106195" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.87610619469027" style="2" customWidth="1"/>
-    <col min="21" max="21" width="30.5044247787611" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.1238938053097" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="28.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="30.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.125" style="2" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21.5044247787611" style="2" customWidth="1"/>
+    <col min="24" max="24" width="21.5" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.35" spans="1:24">
+    <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3614,7 +3102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="15.3" spans="1:23">
+    <row r="2" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3680,7 +3168,7 @@
       </c>
       <c r="W2" s="15"/>
     </row>
-    <row r="3" ht="15.3" spans="1:23">
+    <row r="3" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3746,7 +3234,7 @@
       </c>
       <c r="W3" s="15"/>
     </row>
-    <row r="4" ht="15.3" spans="1:23">
+    <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -3812,7 +3300,7 @@
       </c>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" ht="15.3" spans="1:23">
+    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -3878,7 +3366,7 @@
       </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" ht="15.3" spans="1:23">
+    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -3944,7 +3432,7 @@
       </c>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -4011,7 +3499,7 @@
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" ht="15.3" spans="1:24">
+    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -4075,7 +3563,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" ht="15.3" spans="1:23">
+    <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -4141,7 +3629,7 @@
       </c>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:24">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -4208,7 +3696,7 @@
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" ht="15.3" spans="1:23">
+    <row r="11" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>101</v>
       </c>
@@ -4274,7 +3762,7 @@
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" ht="15.3" spans="1:24">
+    <row r="12" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -4341,7 +3829,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
     </row>
-    <row r="13" ht="15.3" spans="1:24">
+    <row r="13" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -4408,7 +3896,7 @@
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -4475,7 +3963,7 @@
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>135</v>
       </c>
@@ -4542,7 +4030,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>144</v>
       </c>
@@ -4609,7 +4097,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -4676,7 +4164,7 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -4741,7 +4229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="15.3" spans="1:24">
+    <row r="19" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -4808,7 +4296,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
     </row>
-    <row r="20" ht="15.3" spans="1:24">
+    <row r="20" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>177</v>
       </c>
@@ -4875,7 +4363,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
     </row>
-    <row r="21" ht="15.3" spans="1:24">
+    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>185</v>
       </c>
@@ -4942,7 +4430,7 @@
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
     </row>
-    <row r="22" ht="12" customHeight="1" spans="1:24">
+    <row r="22" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>194</v>
       </c>
@@ -4997,7 +4485,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
     </row>
-    <row r="23" ht="15.3" spans="1:24">
+    <row r="23" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>199</v>
       </c>
@@ -5052,7 +4540,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
     </row>
-    <row r="24" ht="15.3" spans="1:23">
+    <row r="24" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>204</v>
       </c>
@@ -5118,7 +4606,7 @@
       </c>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" ht="15.3" spans="1:23">
+    <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>212</v>
       </c>
@@ -5184,7 +4672,7 @@
       </c>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" ht="15.3" spans="1:24">
+    <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>220</v>
       </c>
@@ -5251,7 +4739,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" ht="15.3" spans="1:23">
+    <row r="27" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>228</v>
       </c>
@@ -5317,7 +4805,7 @@
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" ht="15.3" spans="1:23">
+    <row r="28" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>236</v>
       </c>
@@ -5383,7 +4871,7 @@
       </c>
       <c r="W28" s="15"/>
     </row>
-    <row r="29" ht="15.3" spans="1:23">
+    <row r="29" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>244</v>
       </c>
@@ -5449,7 +4937,7 @@
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" ht="15.3" spans="1:23">
+    <row r="30" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>252</v>
       </c>
@@ -5515,7 +5003,7 @@
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" ht="15.3" spans="1:23">
+    <row r="31" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
@@ -5581,7 +5069,7 @@
       </c>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" ht="15.3" spans="1:24">
+    <row r="32" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>268</v>
       </c>
@@ -5636,7 +5124,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>273</v>
       </c>
@@ -5689,7 +5177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>278</v>
       </c>
@@ -5742,7 +5230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>283</v>
       </c>
@@ -5795,7 +5283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="15.3" spans="1:23">
+    <row r="36" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>288</v>
       </c>
@@ -5849,7 +5337,7 @@
       </c>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" ht="15.3" spans="1:23">
+    <row r="37" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>293</v>
       </c>
@@ -5903,7 +5391,7 @@
       </c>
       <c r="W37" s="15"/>
     </row>
-    <row r="38" ht="15.3" spans="1:23">
+    <row r="38" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>298</v>
       </c>
@@ -5957,7 +5445,7 @@
       </c>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" ht="15.3" spans="1:23">
+    <row r="39" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>303</v>
       </c>
@@ -6011,7 +5499,7 @@
       </c>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" ht="15.3" spans="1:23">
+    <row r="40" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>308</v>
       </c>
@@ -6065,7 +5553,7 @@
       </c>
       <c r="W40" s="15"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>313</v>
       </c>
@@ -6118,7 +5606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>318</v>
       </c>
@@ -6171,7 +5659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>323</v>
       </c>
@@ -6224,7 +5712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>328</v>
       </c>
@@ -6277,7 +5765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>333</v>
       </c>
@@ -6330,7 +5818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" ht="15.3" spans="1:24">
+    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>338</v>
       </c>
@@ -6385,7 +5873,7 @@
       <c r="W46" s="15"/>
       <c r="X46" s="15"/>
     </row>
-    <row r="47" ht="15.3" spans="1:24">
+    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>343</v>
       </c>
@@ -6440,7 +5928,7 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" ht="15.3" spans="1:24">
+    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
@@ -6495,7 +5983,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" ht="15.3" spans="1:24">
+    <row r="49" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>353</v>
       </c>
@@ -6550,7 +6038,7 @@
       <c r="W49" s="15"/>
       <c r="X49" s="15"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>358</v>
       </c>
@@ -6603,7 +6091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>363</v>
       </c>
@@ -6656,7 +6144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" ht="15.3" spans="1:24">
+    <row r="52" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>368</v>
       </c>
@@ -6711,7 +6199,7 @@
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>373</v>
       </c>
@@ -6764,7 +6252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" ht="15.3" spans="1:24">
+    <row r="54" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>378</v>
       </c>
@@ -6819,7 +6307,7 @@
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>383</v>
       </c>
@@ -6872,7 +6360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" ht="15.3" spans="1:23">
+    <row r="56" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>388</v>
       </c>
@@ -6926,7 +6414,7 @@
       </c>
       <c r="W56" s="15"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>393</v>
       </c>
@@ -6979,7 +6467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" ht="15.3" spans="1:23">
+    <row r="58" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>398</v>
       </c>
@@ -7033,7 +6521,7 @@
       </c>
       <c r="W58" s="15"/>
     </row>
-    <row r="59" ht="15.3" spans="1:23">
+    <row r="59" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>403</v>
       </c>
@@ -7087,7 +6575,7 @@
       </c>
       <c r="W59" s="15"/>
     </row>
-    <row r="60" ht="15.3" spans="1:24">
+    <row r="60" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>1800</v>
       </c>
@@ -7142,7 +6630,7 @@
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
     </row>
-    <row r="61" ht="15.3" spans="1:24">
+    <row r="61" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>1810</v>
       </c>
@@ -7197,7 +6685,7 @@
       <c r="W61" s="15"/>
       <c r="X61" s="15"/>
     </row>
-    <row r="62" ht="15.3" spans="1:24">
+    <row r="62" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>416</v>
       </c>
@@ -7252,7 +6740,7 @@
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
     </row>
-    <row r="63" ht="15.3" spans="1:23">
+    <row r="63" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>421</v>
       </c>
@@ -7306,7 +6794,7 @@
       </c>
       <c r="W63" s="15"/>
     </row>
-    <row r="64" ht="15.3" spans="1:24">
+    <row r="64" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>426</v>
       </c>
@@ -7361,7 +6849,7 @@
       <c r="W64" s="15"/>
       <c r="X64" s="15"/>
     </row>
-    <row r="65" ht="15.3" spans="1:24">
+    <row r="65" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>431</v>
       </c>
@@ -7416,7 +6904,7 @@
       <c r="W65" s="15"/>
       <c r="X65" s="15"/>
     </row>
-    <row r="66" ht="15.3" spans="1:24">
+    <row r="66" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>436</v>
       </c>
@@ -7471,7 +6959,7 @@
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
     </row>
-    <row r="67" ht="15.3" spans="1:24">
+    <row r="67" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>441</v>
       </c>
@@ -7526,7 +7014,7 @@
       <c r="W67" s="15"/>
       <c r="X67" s="15"/>
     </row>
-    <row r="68" ht="15.3" spans="1:24">
+    <row r="68" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>446</v>
       </c>
@@ -7581,7 +7069,7 @@
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
     </row>
-    <row r="69" ht="15.3" spans="1:24">
+    <row r="69" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>451</v>
       </c>
@@ -7636,7 +7124,7 @@
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
     </row>
-    <row r="70" ht="15.3" spans="1:23">
+    <row r="70" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>456</v>
       </c>
@@ -7690,7 +7178,7 @@
       </c>
       <c r="W70" s="15"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>461</v>
       </c>
@@ -7743,7 +7231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>466</v>
       </c>
@@ -7796,7 +7284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>471</v>
       </c>
@@ -7849,7 +7337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>476</v>
       </c>
@@ -7902,7 +7390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>481</v>
       </c>
@@ -7955,7 +7443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>486</v>
       </c>
@@ -8008,7 +7496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>491</v>
       </c>
@@ -8061,7 +7549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>496</v>
       </c>
@@ -8114,7 +7602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>501</v>
       </c>
@@ -8167,7 +7655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" ht="15.3" spans="1:24">
+    <row r="80" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>506</v>
       </c>
@@ -8222,7 +7710,7 @@
       <c r="W80" s="15"/>
       <c r="X80" s="15"/>
     </row>
-    <row r="81" ht="15.3" spans="1:23">
+    <row r="81" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>511</v>
       </c>
@@ -8276,7 +7764,7 @@
       </c>
       <c r="W81" s="15"/>
     </row>
-    <row r="82" ht="15.3" spans="1:23">
+    <row r="82" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>516</v>
       </c>
@@ -8330,7 +7818,7 @@
       </c>
       <c r="W82" s="15"/>
     </row>
-    <row r="83" ht="15.3" spans="1:23">
+    <row r="83" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>522</v>
       </c>
@@ -8384,7 +7872,7 @@
       </c>
       <c r="W83" s="15"/>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:24">
+    <row r="84" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>528</v>
       </c>
@@ -8439,7 +7927,7 @@
       <c r="W84" s="15"/>
       <c r="X84" s="15"/>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:24">
+    <row r="85" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>533</v>
       </c>
@@ -8494,7 +7982,7 @@
       <c r="W85" s="15"/>
       <c r="X85" s="15"/>
     </row>
-    <row r="86" ht="15.3" spans="1:24">
+    <row r="86" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>538</v>
       </c>
@@ -8549,7 +8037,7 @@
       <c r="W86" s="15"/>
       <c r="X86" s="15"/>
     </row>
-    <row r="87" ht="15.3" spans="1:24">
+    <row r="87" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>543</v>
       </c>
@@ -8604,7 +8092,7 @@
       <c r="W87" s="15"/>
       <c r="X87" s="15"/>
     </row>
-    <row r="88" ht="15.3" spans="1:23">
+    <row r="88" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>548</v>
       </c>
@@ -8658,7 +8146,7 @@
       </c>
       <c r="W88" s="15"/>
     </row>
-    <row r="89" ht="15.3" spans="1:23">
+    <row r="89" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>553</v>
       </c>
@@ -8712,7 +8200,7 @@
       </c>
       <c r="W89" s="15"/>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>558</v>
       </c>
@@ -8765,7 +8253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>563</v>
       </c>
@@ -8818,7 +8306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>568</v>
       </c>
@@ -8871,7 +8359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" ht="15.3" spans="1:24">
+    <row r="93" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>573</v>
       </c>
@@ -8926,7 +8414,7 @@
       <c r="W93" s="15"/>
       <c r="X93" s="15"/>
     </row>
-    <row r="94" ht="15.3" spans="1:24">
+    <row r="94" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>578</v>
       </c>
@@ -8981,7 +8469,7 @@
       <c r="W94" s="15"/>
       <c r="X94" s="15"/>
     </row>
-    <row r="95" ht="15.3" spans="1:24">
+    <row r="95" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>583</v>
       </c>
@@ -9036,7 +8524,7 @@
       <c r="W95" s="15"/>
       <c r="X95" s="15"/>
     </row>
-    <row r="96" ht="15.3" spans="1:23">
+    <row r="96" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>588</v>
       </c>
@@ -9102,7 +8590,7 @@
       </c>
       <c r="W96" s="15"/>
     </row>
-    <row r="97" ht="15.3" spans="1:23">
+    <row r="97" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>596</v>
       </c>
@@ -9168,7 +8656,7 @@
       </c>
       <c r="W97" s="15"/>
     </row>
-    <row r="98" ht="15.3" spans="1:23">
+    <row r="98" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>604</v>
       </c>
@@ -9234,7 +8722,7 @@
       </c>
       <c r="W98" s="15"/>
     </row>
-    <row r="99" ht="15.3" spans="1:23">
+    <row r="99" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>612</v>
       </c>
@@ -9300,7 +8788,7 @@
       </c>
       <c r="W99" s="15"/>
     </row>
-    <row r="100" ht="15.3" spans="1:23">
+    <row r="100" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>620</v>
       </c>
@@ -9366,7 +8854,7 @@
       </c>
       <c r="W100" s="15"/>
     </row>
-    <row r="101" ht="15.3" spans="1:23">
+    <row r="101" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>628</v>
       </c>
@@ -9432,7 +8920,7 @@
       </c>
       <c r="W101" s="15"/>
     </row>
-    <row r="102" ht="15.3" spans="1:23">
+    <row r="102" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="7">
         <v>1010</v>
       </c>
@@ -9498,7 +8986,7 @@
       </c>
       <c r="W102" s="15"/>
     </row>
-    <row r="103" ht="15.3" spans="1:24">
+    <row r="103" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="7">
         <v>1020</v>
       </c>
@@ -9556,7 +9044,7 @@
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
     </row>
-    <row r="104" ht="15" customHeight="1" spans="1:23">
+    <row r="104" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>647</v>
       </c>
@@ -9622,7 +9110,7 @@
       </c>
       <c r="W104" s="15"/>
     </row>
-    <row r="105" ht="15.3" spans="1:23">
+    <row r="105" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>655</v>
       </c>
@@ -9688,7 +9176,7 @@
       </c>
       <c r="W105" s="15"/>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A106" s="7">
         <v>2150</v>
       </c>
@@ -9741,7 +9229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A107" s="7">
         <v>2160</v>
       </c>
@@ -9794,7 +9282,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A108" s="7">
         <v>2170</v>
       </c>
@@ -9847,7 +9335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A109" s="21">
         <v>2180</v>
       </c>
@@ -9900,7 +9388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="15.3" spans="1:23">
+    <row r="110" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>678</v>
       </c>
@@ -9954,7 +9442,7 @@
       </c>
       <c r="W110" s="15"/>
     </row>
-    <row r="111" s="1" customFormat="1" ht="15.3" spans="1:23">
+    <row r="111" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>683</v>
       </c>
@@ -10008,7 +9496,7 @@
       </c>
       <c r="W111" s="15"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="15.3" spans="1:23">
+    <row r="112" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>688</v>
       </c>
@@ -10062,7 +9550,7 @@
       </c>
       <c r="W112" s="15"/>
     </row>
-    <row r="113" s="1" customFormat="1" ht="15.3" spans="1:23">
+    <row r="113" spans="1:23" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>693</v>
       </c>
@@ -10116,7 +9604,7 @@
       </c>
       <c r="W113" s="15"/>
     </row>
-    <row r="114" ht="15.3" spans="1:23">
+    <row r="114" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>3000</v>
       </c>
@@ -10170,47 +9658,130 @@
       </c>
       <c r="W114" s="15"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A115" s="2">
+        <v>1440</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="P115" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q115" s="21">
+        <v>0</v>
+      </c>
+      <c r="R115" s="24">
+        <v>1441</v>
+      </c>
+      <c r="S115" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="T115" s="2">
+        <v>3002</v>
+      </c>
+      <c r="U115" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="V115" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
+        <v>1450</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="P116" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q116" s="21">
+        <v>0</v>
+      </c>
+      <c r="R116" s="24">
+        <v>1451</v>
+      </c>
+      <c r="S116" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="T116" s="2">
+        <v>3002</v>
+      </c>
+      <c r="U116" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="V116" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A117" s="25">
+        <v>1480</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="P117" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q117" s="21">
+        <v>0</v>
+      </c>
+      <c r="R117" s="24">
+        <v>1481</v>
+      </c>
+      <c r="S117" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="T117" s="2">
+        <v>3002</v>
+      </c>
+      <c r="U117" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="V117" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J118" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Table/Table_xls/技能相关表/s属性效果id表.xlsx
+++ b/Table/Table_xls/技能相关表/s属性效果id表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\mt\project_table\Table\Table_xls\技能相关表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A37072-26F0-447F-8204-8D4EBD0EEB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1241A-4CA3-49C3-94AE-1165E4D09DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,6 +61,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -67,6 +70,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,6 +86,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -90,6 +95,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -123,6 +129,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -131,6 +138,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -143,13 +151,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="726">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>属性</t>
@@ -159,6 +168,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -176,6 +186,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特效</t>
@@ -185,6 +196,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -220,6 +232,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>负值描述</t>
@@ -229,6 +242,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -240,6 +254,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>正值描述</t>
@@ -249,6 +264,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -269,6 +285,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>数值型效果</t>
@@ -278,6 +295,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -292,6 +310,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>百分比型效果</t>
@@ -301,6 +320,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -318,6 +338,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>负值描述</t>
@@ -2371,26 +2392,26 @@
   </si>
   <si>
     <t>宠物攻击资质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宠物防御资质</t>
   </si>
   <si>
     <t>宠物速度资质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>zizhi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fangyu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>sudu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2406,15 +2427,15 @@
       </rPr>
       <t>ongjizz_value</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fangyuzz_value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>suduzz_value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2430,7 +2451,7 @@
       </rPr>
       <t>est_1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2446,7 +2467,7 @@
       </rPr>
       <t>est_2</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2462,7 +2483,142 @@
       </rPr>
       <t>est_3</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物体力资质</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法力资质</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物成长资质</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ali</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengzhang</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>est_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>est_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>est_6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>tilizz_value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>falizz_value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengzhangzz_value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2470,9 +2626,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2481,13 +2637,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2504,12 +2669,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2597,9 +2764,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2608,9 +2775,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2621,34 +2788,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2995,13 +3162,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S110" sqref="S110"/>
+      <selection pane="bottomRight" activeCell="S117" sqref="S117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9741,15 +9908,100 @@
       <c r="U117" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="V117" s="12">
+      <c r="V117" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A118" s="25">
+        <v>1460</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>714</v>
+      </c>
       <c r="J118" s="12"/>
+      <c r="P118" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q118" s="21">
+        <v>0</v>
+      </c>
+      <c r="R118" s="24">
+        <v>1461</v>
+      </c>
+      <c r="S118" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="T118" s="2">
+        <v>3002</v>
+      </c>
+      <c r="U118" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="V118" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A119" s="25">
+        <v>1470</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="P119" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q119" s="21">
+        <v>0</v>
+      </c>
+      <c r="R119" s="24">
+        <v>1471</v>
+      </c>
+      <c r="S119" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="T119" s="2">
+        <v>3002</v>
+      </c>
+      <c r="U119" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="V119" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A120" s="25">
+        <v>1500</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="P120" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q120" s="21">
+        <v>0</v>
+      </c>
+      <c r="R120" s="24">
+        <v>1501</v>
+      </c>
+      <c r="S120" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="T120" s="2">
+        <v>3002</v>
+      </c>
+      <c r="U120" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="V120" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
@@ -9766,7 +10018,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -9780,7 +10032,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>

--- a/Table/Table_xls/技能相关表/s属性效果id表.xlsx
+++ b/Table/Table_xls/技能相关表/s属性效果id表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\mt\project_table\Table\Table_xls\技能相关表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1241A-4CA3-49C3-94AE-1165E4D09DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +19,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -46,7 +39,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,14 +46,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -70,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,14 +69,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -95,7 +84,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -122,14 +110,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B103" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -138,7 +125,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -158,7 +144,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>属性</t>
@@ -168,7 +153,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -186,7 +170,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特效</t>
@@ -196,7 +179,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -232,7 +214,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>负值描述</t>
@@ -242,7 +223,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -254,7 +234,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>正值描述</t>
@@ -264,7 +243,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -285,7 +263,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>数值型效果</t>
@@ -295,7 +272,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -310,7 +286,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>百分比型效果</t>
@@ -320,7 +295,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -338,7 +312,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>负值描述</t>
@@ -348,7 +321,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -2392,29 +2365,18 @@
   </si>
   <si>
     <t>宠物攻击资质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物防御资质</t>
-  </si>
-  <si>
-    <t>宠物速度资质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>zizhi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangyu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sudu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>g</t>
     </r>
     <r>
@@ -2422,23 +2384,19 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ongjizz_value</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangyuzz_value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>suduzz_value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
@@ -2446,15 +2404,28 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>est_1</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御资质</t>
+  </si>
+  <si>
+    <t>fangyu</t>
+  </si>
+  <si>
+    <t>fangyuzz_value</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
@@ -2462,15 +2433,28 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>est_2</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物速度资质</t>
+  </si>
+  <si>
+    <t>sudu</t>
+  </si>
+  <si>
+    <t>suduzz_value</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
@@ -2478,19 +2462,22 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>est_3</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宠物体力资质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>ti</t>
     </r>
     <r>
@@ -2498,23 +2485,45 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>li</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tilizz_value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>est_4</t>
+    </r>
   </si>
   <si>
     <t>宠物法力资质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物成长资质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>f</t>
     </r>
     <r>
@@ -2522,19 +2531,22 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ali</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>chengzhang</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>falizz_value</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
@@ -2542,24 +2554,28 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>est_4</t>
+      <t>est_5</t>
     </r>
+  </si>
+  <si>
+    <t>宠物成长资质</t>
+  </si>
+  <si>
+    <t>chengzhang</t>
+  </si>
+  <si>
+    <t>chengzhangzz_value</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>t</t>
     </r>
     <r>
@@ -2567,68 +2583,24 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>est_5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>est_6</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>tilizz_value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>falizz_value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>chengzhangzz_value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2637,63 +2609,190 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2712,8 +2811,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2752,21 +3037,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2775,9 +3302,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2788,46 +3315,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3156,46 +3726,47 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P107" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S117" sqref="S117"/>
+      <selection pane="bottomRight" activeCell="Q125" sqref="Q125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.8796296296296" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8796296296296" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="12" width="16.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.6296296296296" style="2" customWidth="1"/>
     <col min="15" max="15" width="26.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.6296296296296" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="4"/>
     <col min="18" max="18" width="13.75" style="2" customWidth="1"/>
     <col min="19" max="19" width="28.25" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.87962962962963" style="2" customWidth="1"/>
     <col min="21" max="21" width="30.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.1296296296296" style="2" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" customWidth="1"/>
     <col min="24" max="24" width="21.5" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="15.6" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3335,7 +3906,7 @@
       </c>
       <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" ht="15.6" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3401,7 +3972,7 @@
       </c>
       <c r="W3" s="15"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.6" spans="1:23">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -3467,7 +4038,7 @@
       </c>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" ht="15.6" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -3533,7 +4104,7 @@
       </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.6" spans="1:23">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -3599,7 +4170,7 @@
       </c>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -3666,7 +4237,7 @@
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.6" spans="1:24">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -3730,7 +4301,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.6" spans="1:23">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -3796,7 +4367,7 @@
       </c>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1" spans="1:24">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -3863,7 +4434,7 @@
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" ht="15.6" spans="1:23">
       <c r="A11" s="2" t="s">
         <v>101</v>
       </c>
@@ -3929,7 +4500,7 @@
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" ht="15.6" spans="1:24">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -3996,7 +4567,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
     </row>
-    <row r="13" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" ht="15.6" spans="1:24">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -4063,7 +4634,7 @@
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
     </row>
-    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
@@ -4130,7 +4701,7 @@
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="2" t="s">
         <v>135</v>
       </c>
@@ -4197,7 +4768,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="2" t="s">
         <v>144</v>
       </c>
@@ -4264,7 +4835,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -4331,7 +4902,7 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -4396,7 +4967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" ht="15.6" spans="1:24">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -4463,7 +5034,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
     </row>
-    <row r="20" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" ht="15.6" spans="1:24">
       <c r="A20" s="2" t="s">
         <v>177</v>
       </c>
@@ -4530,7 +5101,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
     </row>
-    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" ht="15.6" spans="1:24">
       <c r="A21" s="2" t="s">
         <v>185</v>
       </c>
@@ -4597,7 +5168,7 @@
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
     </row>
-    <row r="22" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="12" customHeight="1" spans="1:24">
       <c r="A22" s="2" t="s">
         <v>194</v>
       </c>
@@ -4652,7 +5223,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
     </row>
-    <row r="23" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" ht="15.6" spans="1:24">
       <c r="A23" s="2" t="s">
         <v>199</v>
       </c>
@@ -4707,7 +5278,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
     </row>
-    <row r="24" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" ht="15.6" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>204</v>
       </c>
@@ -4773,7 +5344,7 @@
       </c>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" ht="15.6" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>212</v>
       </c>
@@ -4839,7 +5410,7 @@
       </c>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" ht="15.6" spans="1:24">
       <c r="A26" s="2" t="s">
         <v>220</v>
       </c>
@@ -4906,7 +5477,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" ht="15.6" spans="1:23">
       <c r="A27" s="2" t="s">
         <v>228</v>
       </c>
@@ -4972,7 +5543,7 @@
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" ht="15.6" spans="1:23">
       <c r="A28" s="2" t="s">
         <v>236</v>
       </c>
@@ -5038,7 +5609,7 @@
       </c>
       <c r="W28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" ht="15.6" spans="1:23">
       <c r="A29" s="2" t="s">
         <v>244</v>
       </c>
@@ -5104,7 +5675,7 @@
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" ht="15.6" spans="1:23">
       <c r="A30" s="2" t="s">
         <v>252</v>
       </c>
@@ -5170,7 +5741,7 @@
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" ht="15.6" spans="1:23">
       <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
@@ -5236,7 +5807,7 @@
       </c>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" ht="15.6" spans="1:24">
       <c r="A32" s="2" t="s">
         <v>268</v>
       </c>
@@ -5291,7 +5862,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22">
       <c r="A33" s="2" t="s">
         <v>273</v>
       </c>
@@ -5344,7 +5915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22">
       <c r="A34" s="2" t="s">
         <v>278</v>
       </c>
@@ -5397,7 +5968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22">
       <c r="A35" s="2" t="s">
         <v>283</v>
       </c>
@@ -5450,7 +6021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" ht="15.6" spans="1:23">
       <c r="A36" s="2" t="s">
         <v>288</v>
       </c>
@@ -5504,7 +6075,7 @@
       </c>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" ht="15.6" spans="1:23">
       <c r="A37" s="2" t="s">
         <v>293</v>
       </c>
@@ -5558,7 +6129,7 @@
       </c>
       <c r="W37" s="15"/>
     </row>
-    <row r="38" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" ht="15.6" spans="1:23">
       <c r="A38" s="2" t="s">
         <v>298</v>
       </c>
@@ -5612,7 +6183,7 @@
       </c>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" ht="15.6" spans="1:23">
       <c r="A39" s="2" t="s">
         <v>303</v>
       </c>
@@ -5666,7 +6237,7 @@
       </c>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" ht="15.6" spans="1:23">
       <c r="A40" s="2" t="s">
         <v>308</v>
       </c>
@@ -5720,7 +6291,7 @@
       </c>
       <c r="W40" s="15"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22">
       <c r="A41" s="2" t="s">
         <v>313</v>
       </c>
@@ -5773,7 +6344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22">
       <c r="A42" s="2" t="s">
         <v>318</v>
       </c>
@@ -5826,7 +6397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22">
       <c r="A43" s="2" t="s">
         <v>323</v>
       </c>
@@ -5879,7 +6450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22">
       <c r="A44" s="2" t="s">
         <v>328</v>
       </c>
@@ -5932,7 +6503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22">
       <c r="A45" s="2" t="s">
         <v>333</v>
       </c>
@@ -5985,7 +6556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" ht="15.6" spans="1:24">
       <c r="A46" s="2" t="s">
         <v>338</v>
       </c>
@@ -6040,7 +6611,7 @@
       <c r="W46" s="15"/>
       <c r="X46" s="15"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" ht="15.6" spans="1:24">
       <c r="A47" s="2" t="s">
         <v>343</v>
       </c>
@@ -6095,7 +6666,7 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" ht="15.6" spans="1:24">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
@@ -6150,7 +6721,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" ht="15.6" spans="1:24">
       <c r="A49" s="2" t="s">
         <v>353</v>
       </c>
@@ -6205,7 +6776,7 @@
       <c r="W49" s="15"/>
       <c r="X49" s="15"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22">
       <c r="A50" s="2" t="s">
         <v>358</v>
       </c>
@@ -6258,7 +6829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22">
       <c r="A51" s="2" t="s">
         <v>363</v>
       </c>
@@ -6311,7 +6882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" ht="15.6" spans="1:24">
       <c r="A52" s="2" t="s">
         <v>368</v>
       </c>
@@ -6366,7 +6937,7 @@
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22">
       <c r="A53" s="2" t="s">
         <v>373</v>
       </c>
@@ -6419,7 +6990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" ht="15.6" spans="1:24">
       <c r="A54" s="2" t="s">
         <v>378</v>
       </c>
@@ -6474,7 +7045,7 @@
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22">
       <c r="A55" s="2" t="s">
         <v>383</v>
       </c>
@@ -6527,7 +7098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" ht="15.6" spans="1:23">
       <c r="A56" s="2" t="s">
         <v>388</v>
       </c>
@@ -6581,7 +7152,7 @@
       </c>
       <c r="W56" s="15"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22">
       <c r="A57" s="2" t="s">
         <v>393</v>
       </c>
@@ -6634,7 +7205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" ht="15.6" spans="1:23">
       <c r="A58" s="2" t="s">
         <v>398</v>
       </c>
@@ -6688,7 +7259,7 @@
       </c>
       <c r="W58" s="15"/>
     </row>
-    <row r="59" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" ht="15.6" spans="1:23">
       <c r="A59" s="2" t="s">
         <v>403</v>
       </c>
@@ -6742,7 +7313,7 @@
       </c>
       <c r="W59" s="15"/>
     </row>
-    <row r="60" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" ht="15.6" spans="1:24">
       <c r="A60" s="2">
         <v>1800</v>
       </c>
@@ -6797,7 +7368,7 @@
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
     </row>
-    <row r="61" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" ht="15.6" spans="1:24">
       <c r="A61" s="2">
         <v>1810</v>
       </c>
@@ -6852,7 +7423,7 @@
       <c r="W61" s="15"/>
       <c r="X61" s="15"/>
     </row>
-    <row r="62" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" ht="15.6" spans="1:24">
       <c r="A62" s="2" t="s">
         <v>416</v>
       </c>
@@ -6907,7 +7478,7 @@
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
     </row>
-    <row r="63" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" ht="15.6" spans="1:23">
       <c r="A63" s="2" t="s">
         <v>421</v>
       </c>
@@ -6961,7 +7532,7 @@
       </c>
       <c r="W63" s="15"/>
     </row>
-    <row r="64" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" ht="15.6" spans="1:24">
       <c r="A64" s="2" t="s">
         <v>426</v>
       </c>
@@ -7016,7 +7587,7 @@
       <c r="W64" s="15"/>
       <c r="X64" s="15"/>
     </row>
-    <row r="65" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" ht="15.6" spans="1:24">
       <c r="A65" s="2" t="s">
         <v>431</v>
       </c>
@@ -7071,7 +7642,7 @@
       <c r="W65" s="15"/>
       <c r="X65" s="15"/>
     </row>
-    <row r="66" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" ht="15.6" spans="1:24">
       <c r="A66" s="2" t="s">
         <v>436</v>
       </c>
@@ -7126,7 +7697,7 @@
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
     </row>
-    <row r="67" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" ht="15.6" spans="1:24">
       <c r="A67" s="2" t="s">
         <v>441</v>
       </c>
@@ -7181,7 +7752,7 @@
       <c r="W67" s="15"/>
       <c r="X67" s="15"/>
     </row>
-    <row r="68" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" ht="15.6" spans="1:24">
       <c r="A68" s="2" t="s">
         <v>446</v>
       </c>
@@ -7236,7 +7807,7 @@
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
     </row>
-    <row r="69" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" ht="15.6" spans="1:24">
       <c r="A69" s="2" t="s">
         <v>451</v>
       </c>
@@ -7291,7 +7862,7 @@
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
     </row>
-    <row r="70" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" ht="15.6" spans="1:23">
       <c r="A70" s="2" t="s">
         <v>456</v>
       </c>
@@ -7345,7 +7916,7 @@
       </c>
       <c r="W70" s="15"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22">
       <c r="A71" s="2" t="s">
         <v>461</v>
       </c>
@@ -7398,7 +7969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
         <v>466</v>
       </c>
@@ -7451,7 +8022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
         <v>471</v>
       </c>
@@ -7504,7 +8075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22">
       <c r="A74" s="2" t="s">
         <v>476</v>
       </c>
@@ -7557,7 +8128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22">
       <c r="A75" s="2" t="s">
         <v>481</v>
       </c>
@@ -7610,7 +8181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22">
       <c r="A76" s="2" t="s">
         <v>486</v>
       </c>
@@ -7663,7 +8234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22">
       <c r="A77" s="2" t="s">
         <v>491</v>
       </c>
@@ -7716,7 +8287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22">
       <c r="A78" s="2" t="s">
         <v>496</v>
       </c>
@@ -7769,7 +8340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22">
       <c r="A79" s="2" t="s">
         <v>501</v>
       </c>
@@ -7822,7 +8393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" ht="15.6" spans="1:24">
       <c r="A80" s="2" t="s">
         <v>506</v>
       </c>
@@ -7877,7 +8448,7 @@
       <c r="W80" s="15"/>
       <c r="X80" s="15"/>
     </row>
-    <row r="81" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" ht="15.6" spans="1:23">
       <c r="A81" s="2" t="s">
         <v>511</v>
       </c>
@@ -7931,7 +8502,7 @@
       </c>
       <c r="W81" s="15"/>
     </row>
-    <row r="82" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" ht="15.6" spans="1:23">
       <c r="A82" s="2" t="s">
         <v>516</v>
       </c>
@@ -7985,7 +8556,7 @@
       </c>
       <c r="W82" s="15"/>
     </row>
-    <row r="83" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" ht="15.6" spans="1:23">
       <c r="A83" s="2" t="s">
         <v>522</v>
       </c>
@@ -8039,7 +8610,7 @@
       </c>
       <c r="W83" s="15"/>
     </row>
-    <row r="84" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" ht="15" customHeight="1" spans="1:24">
       <c r="A84" s="2" t="s">
         <v>528</v>
       </c>
@@ -8094,7 +8665,7 @@
       <c r="W84" s="15"/>
       <c r="X84" s="15"/>
     </row>
-    <row r="85" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" ht="15" customHeight="1" spans="1:24">
       <c r="A85" s="2" t="s">
         <v>533</v>
       </c>
@@ -8149,7 +8720,7 @@
       <c r="W85" s="15"/>
       <c r="X85" s="15"/>
     </row>
-    <row r="86" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" ht="15.6" spans="1:24">
       <c r="A86" s="2" t="s">
         <v>538</v>
       </c>
@@ -8204,7 +8775,7 @@
       <c r="W86" s="15"/>
       <c r="X86" s="15"/>
     </row>
-    <row r="87" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" ht="15.6" spans="1:24">
       <c r="A87" s="2" t="s">
         <v>543</v>
       </c>
@@ -8259,7 +8830,7 @@
       <c r="W87" s="15"/>
       <c r="X87" s="15"/>
     </row>
-    <row r="88" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" ht="15.6" spans="1:23">
       <c r="A88" s="2" t="s">
         <v>548</v>
       </c>
@@ -8313,7 +8884,7 @@
       </c>
       <c r="W88" s="15"/>
     </row>
-    <row r="89" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" ht="15.6" spans="1:23">
       <c r="A89" s="2" t="s">
         <v>553</v>
       </c>
@@ -8367,7 +8938,7 @@
       </c>
       <c r="W89" s="15"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22">
       <c r="A90" s="2" t="s">
         <v>558</v>
       </c>
@@ -8420,7 +8991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:22">
       <c r="A91" s="2" t="s">
         <v>563</v>
       </c>
@@ -8473,7 +9044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:22">
       <c r="A92" s="2" t="s">
         <v>568</v>
       </c>
@@ -8526,7 +9097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" ht="15.6" spans="1:24">
       <c r="A93" s="2" t="s">
         <v>573</v>
       </c>
@@ -8581,7 +9152,7 @@
       <c r="W93" s="15"/>
       <c r="X93" s="15"/>
     </row>
-    <row r="94" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" ht="15.6" spans="1:24">
       <c r="A94" s="2" t="s">
         <v>578</v>
       </c>
@@ -8636,7 +9207,7 @@
       <c r="W94" s="15"/>
       <c r="X94" s="15"/>
     </row>
-    <row r="95" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" ht="15.6" spans="1:24">
       <c r="A95" s="2" t="s">
         <v>583</v>
       </c>
@@ -8691,7 +9262,7 @@
       <c r="W95" s="15"/>
       <c r="X95" s="15"/>
     </row>
-    <row r="96" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" ht="15.6" spans="1:23">
       <c r="A96" s="2" t="s">
         <v>588</v>
       </c>
@@ -8757,7 +9328,7 @@
       </c>
       <c r="W96" s="15"/>
     </row>
-    <row r="97" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" ht="15.6" spans="1:23">
       <c r="A97" s="2" t="s">
         <v>596</v>
       </c>
@@ -8823,7 +9394,7 @@
       </c>
       <c r="W97" s="15"/>
     </row>
-    <row r="98" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" ht="15.6" spans="1:23">
       <c r="A98" s="2" t="s">
         <v>604</v>
       </c>
@@ -8889,7 +9460,7 @@
       </c>
       <c r="W98" s="15"/>
     </row>
-    <row r="99" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" ht="15.6" spans="1:23">
       <c r="A99" s="2" t="s">
         <v>612</v>
       </c>
@@ -8955,7 +9526,7 @@
       </c>
       <c r="W99" s="15"/>
     </row>
-    <row r="100" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" ht="15.6" spans="1:23">
       <c r="A100" s="2" t="s">
         <v>620</v>
       </c>
@@ -9021,7 +9592,7 @@
       </c>
       <c r="W100" s="15"/>
     </row>
-    <row r="101" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" ht="15.6" spans="1:23">
       <c r="A101" s="2" t="s">
         <v>628</v>
       </c>
@@ -9087,7 +9658,7 @@
       </c>
       <c r="W101" s="15"/>
     </row>
-    <row r="102" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" ht="15.6" spans="1:23">
       <c r="A102" s="7">
         <v>1010</v>
       </c>
@@ -9153,7 +9724,7 @@
       </c>
       <c r="W102" s="15"/>
     </row>
-    <row r="103" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" ht="15.6" spans="1:24">
       <c r="A103" s="7">
         <v>1020</v>
       </c>
@@ -9211,7 +9782,7 @@
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
     </row>
-    <row r="104" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" ht="15" customHeight="1" spans="1:23">
       <c r="A104" s="2" t="s">
         <v>647</v>
       </c>
@@ -9277,7 +9848,7 @@
       </c>
       <c r="W104" s="15"/>
     </row>
-    <row r="105" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" ht="15.6" spans="1:23">
       <c r="A105" s="2" t="s">
         <v>655</v>
       </c>
@@ -9343,7 +9914,7 @@
       </c>
       <c r="W105" s="15"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:22">
       <c r="A106" s="7">
         <v>2150</v>
       </c>
@@ -9392,11 +9963,11 @@
       <c r="U106" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="V106" s="23">
+      <c r="V106" s="24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:22">
       <c r="A107" s="7">
         <v>2160</v>
       </c>
@@ -9445,11 +10016,11 @@
       <c r="U107" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="V107" s="23">
+      <c r="V107" s="24">
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:22">
       <c r="A108" s="7">
         <v>2170</v>
       </c>
@@ -9502,7 +10073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:22">
       <c r="A109" s="21">
         <v>2180</v>
       </c>
@@ -9555,7 +10126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" s="1" customFormat="1" ht="15.6" spans="1:23">
       <c r="A110" s="1" t="s">
         <v>678</v>
       </c>
@@ -9592,7 +10163,7 @@
       <c r="Q110" s="21">
         <v>0</v>
       </c>
-      <c r="R110" s="24">
+      <c r="R110" s="25">
         <v>1171</v>
       </c>
       <c r="S110" s="1" t="s">
@@ -9609,7 +10180,7 @@
       </c>
       <c r="W110" s="15"/>
     </row>
-    <row r="111" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" s="1" customFormat="1" ht="15.6" spans="1:23">
       <c r="A111" s="1" t="s">
         <v>683</v>
       </c>
@@ -9646,7 +10217,7 @@
       <c r="Q111" s="21">
         <v>0</v>
       </c>
-      <c r="R111" s="24">
+      <c r="R111" s="25">
         <v>1181</v>
       </c>
       <c r="S111" s="1" t="s">
@@ -9663,7 +10234,7 @@
       </c>
       <c r="W111" s="15"/>
     </row>
-    <row r="112" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" s="1" customFormat="1" ht="15.6" spans="1:23">
       <c r="A112" s="1" t="s">
         <v>688</v>
       </c>
@@ -9700,7 +10271,7 @@
       <c r="Q112" s="21">
         <v>0</v>
       </c>
-      <c r="R112" s="24">
+      <c r="R112" s="25">
         <v>1581</v>
       </c>
       <c r="S112" s="1" t="s">
@@ -9717,7 +10288,7 @@
       </c>
       <c r="W112" s="15"/>
     </row>
-    <row r="113" spans="1:23" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" s="1" customFormat="1" ht="15.6" spans="1:23">
       <c r="A113" s="1" t="s">
         <v>693</v>
       </c>
@@ -9754,7 +10325,7 @@
       <c r="Q113" s="21">
         <v>0</v>
       </c>
-      <c r="R113" s="24">
+      <c r="R113" s="25">
         <v>1591</v>
       </c>
       <c r="S113" s="1" t="s">
@@ -9771,7 +10342,7 @@
       </c>
       <c r="W113" s="15"/>
     </row>
-    <row r="114" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" ht="15.6" spans="1:23">
       <c r="A114" s="2">
         <v>3000</v>
       </c>
@@ -9825,7 +10396,7 @@
       </c>
       <c r="W114" s="15"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:22">
       <c r="A115" s="2">
         <v>1440</v>
       </c>
@@ -9833,74 +10404,74 @@
         <v>702</v>
       </c>
       <c r="P115" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="Q115" s="21">
         <v>0</v>
       </c>
-      <c r="R115" s="24">
+      <c r="R115" s="25">
         <v>1441</v>
       </c>
-      <c r="S115" s="26" t="s">
-        <v>708</v>
+      <c r="S115" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="T115" s="2">
         <v>3002</v>
       </c>
       <c r="U115" s="12" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="V115" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:22">
       <c r="A116" s="2">
         <v>1450</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="P116" s="12" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q116" s="21">
         <v>0</v>
       </c>
-      <c r="R116" s="24">
+      <c r="R116" s="25">
         <v>1451</v>
       </c>
-      <c r="S116" s="26" t="s">
-        <v>709</v>
+      <c r="S116" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="T116" s="2">
         <v>3002</v>
       </c>
       <c r="U116" s="12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="V116" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A117" s="25">
+    <row r="117" spans="1:22">
+      <c r="A117" s="23">
         <v>1480</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="P117" s="12" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="Q117" s="21">
         <v>0</v>
       </c>
-      <c r="R117" s="24">
+      <c r="R117" s="25">
         <v>1481</v>
       </c>
-      <c r="S117" s="26" t="s">
-        <v>710</v>
+      <c r="S117" s="12" t="s">
+        <v>712</v>
       </c>
       <c r="T117" s="2">
         <v>3002</v>
@@ -9912,8 +10483,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A118" s="25">
+    <row r="118" spans="1:22">
+      <c r="A118" s="23">
         <v>1460</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -9926,40 +10497,40 @@
       <c r="Q118" s="21">
         <v>0</v>
       </c>
-      <c r="R118" s="24">
+      <c r="R118" s="25">
         <v>1461</v>
       </c>
-      <c r="S118" s="26" t="s">
-        <v>723</v>
+      <c r="S118" s="12" t="s">
+        <v>716</v>
       </c>
       <c r="T118" s="2">
         <v>3002</v>
       </c>
       <c r="U118" s="12" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="V118" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A119" s="25">
+    <row r="119" spans="1:22">
+      <c r="A119" s="23">
         <v>1470</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="P119" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Q119" s="21">
         <v>0</v>
       </c>
-      <c r="R119" s="24">
+      <c r="R119" s="25">
         <v>1471</v>
       </c>
-      <c r="S119" s="26" t="s">
-        <v>724</v>
+      <c r="S119" s="12" t="s">
+        <v>720</v>
       </c>
       <c r="T119" s="2">
         <v>3002</v>
@@ -9971,69 +10542,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A120" s="25">
+    <row r="120" spans="1:22">
+      <c r="A120" s="23">
         <v>1500</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="P120" s="26" t="s">
-        <v>719</v>
+        <v>722</v>
+      </c>
+      <c r="P120" s="12" t="s">
+        <v>723</v>
       </c>
       <c r="Q120" s="21">
         <v>0</v>
       </c>
-      <c r="R120" s="24">
+      <c r="R120" s="25">
         <v>1501</v>
       </c>
-      <c r="S120" s="26" t="s">
-        <v>725</v>
+      <c r="S120" s="12" t="s">
+        <v>724</v>
       </c>
       <c r="T120" s="2">
         <v>3002</v>
       </c>
       <c r="U120" s="12" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="V120" s="2">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Table/Table_xls/技能相关表/s属性效果id表.xlsx
+++ b/Table/Table_xls/技能相关表/s属性效果id表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,33 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>weic</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果是装备属性，需要在洗练表里面添加相应ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -46,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -69,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -110,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B103" authorId="0">
+    <comment ref="B103" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2594,13 +2617,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2627,41 +2650,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2670,20 +2665,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2713,9 +2700,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2738,57 +2799,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2813,37 +2825,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,7 +2855,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2873,13 +2891,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2891,91 +2987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2987,13 +2999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3038,11 +3050,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3058,6 +3076,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3079,30 +3130,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3112,26 +3139,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3140,148 +3152,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3735,38 +3747,38 @@
   <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q125" sqref="Q125"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="45.8796296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.8833333333333" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8796296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8833333333333" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="12" width="16.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.6296296296296" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.6333333333333" style="2" customWidth="1"/>
     <col min="15" max="15" width="26.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.6296296296296" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.6333333333333" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="4"/>
     <col min="18" max="18" width="13.75" style="2" customWidth="1"/>
     <col min="19" max="19" width="28.25" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.87962962962963" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.88333333333333" style="2" customWidth="1"/>
     <col min="21" max="21" width="30.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.1296296296296" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.1333333333333" style="2" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" customWidth="1"/>
     <col min="24" max="24" width="21.5" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" ht="14.25" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3840,7 +3852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:23">
+    <row r="2" ht="14.25" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3906,7 +3918,7 @@
       </c>
       <c r="W2" s="15"/>
     </row>
-    <row r="3" ht="15.6" spans="1:23">
+    <row r="3" ht="14.25" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3972,7 +3984,7 @@
       </c>
       <c r="W3" s="15"/>
     </row>
-    <row r="4" ht="15.6" spans="1:23">
+    <row r="4" ht="14.25" spans="1:23">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -4038,7 +4050,7 @@
       </c>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" ht="15.6" spans="1:23">
+    <row r="5" ht="14.25" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4104,7 +4116,7 @@
       </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" ht="15.6" spans="1:23">
+    <row r="6" ht="14.25" spans="1:23">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -4237,7 +4249,7 @@
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" ht="15.6" spans="1:24">
+    <row r="8" ht="14.25" spans="1:24">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -4301,7 +4313,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" ht="15.6" spans="1:23">
+    <row r="9" ht="14.25" spans="1:23">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -4434,7 +4446,7 @@
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" ht="15.6" spans="1:23">
+    <row r="11" ht="14.25" spans="1:23">
       <c r="A11" s="2" t="s">
         <v>101</v>
       </c>
@@ -4500,7 +4512,7 @@
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" ht="15.6" spans="1:24">
+    <row r="12" ht="14.25" spans="1:24">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
@@ -4567,7 +4579,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
     </row>
-    <row r="13" ht="15.6" spans="1:24">
+    <row r="13" ht="14.25" spans="1:24">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -4967,7 +4979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:24">
+    <row r="19" ht="14.25" spans="1:24">
       <c r="A19" s="2" t="s">
         <v>169</v>
       </c>
@@ -5034,7 +5046,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
     </row>
-    <row r="20" ht="15.6" spans="1:24">
+    <row r="20" ht="14.25" spans="1:24">
       <c r="A20" s="2" t="s">
         <v>177</v>
       </c>
@@ -5101,7 +5113,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
     </row>
-    <row r="21" ht="15.6" spans="1:24">
+    <row r="21" ht="14.25" spans="1:24">
       <c r="A21" s="2" t="s">
         <v>185</v>
       </c>
@@ -5223,7 +5235,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
     </row>
-    <row r="23" ht="15.6" spans="1:24">
+    <row r="23" ht="14.25" spans="1:24">
       <c r="A23" s="2" t="s">
         <v>199</v>
       </c>
@@ -5278,7 +5290,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
     </row>
-    <row r="24" ht="15.6" spans="1:23">
+    <row r="24" ht="14.25" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>204</v>
       </c>
@@ -5344,7 +5356,7 @@
       </c>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" ht="15.6" spans="1:23">
+    <row r="25" ht="14.25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>212</v>
       </c>
@@ -5410,7 +5422,7 @@
       </c>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" ht="15.6" spans="1:24">
+    <row r="26" ht="14.25" spans="1:24">
       <c r="A26" s="2" t="s">
         <v>220</v>
       </c>
@@ -5477,7 +5489,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" ht="15.6" spans="1:23">
+    <row r="27" ht="14.25" spans="1:23">
       <c r="A27" s="2" t="s">
         <v>228</v>
       </c>
@@ -5543,7 +5555,7 @@
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" ht="15.6" spans="1:23">
+    <row r="28" ht="14.25" spans="1:23">
       <c r="A28" s="2" t="s">
         <v>236</v>
       </c>
@@ -5609,7 +5621,7 @@
       </c>
       <c r="W28" s="15"/>
     </row>
-    <row r="29" ht="15.6" spans="1:23">
+    <row r="29" ht="14.25" spans="1:23">
       <c r="A29" s="2" t="s">
         <v>244</v>
       </c>
@@ -5675,7 +5687,7 @@
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" ht="15.6" spans="1:23">
+    <row r="30" ht="14.25" spans="1:23">
       <c r="A30" s="2" t="s">
         <v>252</v>
       </c>
@@ -5741,7 +5753,7 @@
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" ht="15.6" spans="1:23">
+    <row r="31" ht="14.25" spans="1:23">
       <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
@@ -5807,7 +5819,7 @@
       </c>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" ht="15.6" spans="1:24">
+    <row r="32" ht="14.25" spans="1:24">
       <c r="A32" s="2" t="s">
         <v>268</v>
       </c>
@@ -6021,7 +6033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:23">
+    <row r="36" ht="14.25" spans="1:23">
       <c r="A36" s="2" t="s">
         <v>288</v>
       </c>
@@ -6075,7 +6087,7 @@
       </c>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" ht="15.6" spans="1:23">
+    <row r="37" ht="14.25" spans="1:23">
       <c r="A37" s="2" t="s">
         <v>293</v>
       </c>
@@ -6129,7 +6141,7 @@
       </c>
       <c r="W37" s="15"/>
     </row>
-    <row r="38" ht="15.6" spans="1:23">
+    <row r="38" ht="14.25" spans="1:23">
       <c r="A38" s="2" t="s">
         <v>298</v>
       </c>
@@ -6183,7 +6195,7 @@
       </c>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" ht="15.6" spans="1:23">
+    <row r="39" ht="14.25" spans="1:23">
       <c r="A39" s="2" t="s">
         <v>303</v>
       </c>
@@ -6237,7 +6249,7 @@
       </c>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" ht="15.6" spans="1:23">
+    <row r="40" ht="14.25" spans="1:23">
       <c r="A40" s="2" t="s">
         <v>308</v>
       </c>
@@ -6556,7 +6568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:24">
+    <row r="46" ht="14.25" spans="1:24">
       <c r="A46" s="2" t="s">
         <v>338</v>
       </c>
@@ -6611,7 +6623,7 @@
       <c r="W46" s="15"/>
       <c r="X46" s="15"/>
     </row>
-    <row r="47" ht="15.6" spans="1:24">
+    <row r="47" ht="14.25" spans="1:24">
       <c r="A47" s="2" t="s">
         <v>343</v>
       </c>
@@ -6666,7 +6678,7 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" ht="15.6" spans="1:24">
+    <row r="48" ht="14.25" spans="1:24">
       <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
@@ -6721,7 +6733,7 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" ht="15.6" spans="1:24">
+    <row r="49" ht="14.25" spans="1:24">
       <c r="A49" s="2" t="s">
         <v>353</v>
       </c>
@@ -6882,7 +6894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="1:24">
+    <row r="52" ht="14.25" spans="1:24">
       <c r="A52" s="2" t="s">
         <v>368</v>
       </c>
@@ -6990,7 +7002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="1:24">
+    <row r="54" ht="14.25" spans="1:24">
       <c r="A54" s="2" t="s">
         <v>378</v>
       </c>
@@ -7098,7 +7110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="1:23">
+    <row r="56" ht="14.25" spans="1:23">
       <c r="A56" s="2" t="s">
         <v>388</v>
       </c>
@@ -7205,7 +7217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="1:23">
+    <row r="58" ht="14.25" spans="1:23">
       <c r="A58" s="2" t="s">
         <v>398</v>
       </c>
@@ -7259,7 +7271,7 @@
       </c>
       <c r="W58" s="15"/>
     </row>
-    <row r="59" ht="15.6" spans="1:23">
+    <row r="59" ht="14.25" spans="1:23">
       <c r="A59" s="2" t="s">
         <v>403</v>
       </c>
@@ -7313,7 +7325,7 @@
       </c>
       <c r="W59" s="15"/>
     </row>
-    <row r="60" ht="15.6" spans="1:24">
+    <row r="60" ht="14.25" spans="1:24">
       <c r="A60" s="2">
         <v>1800</v>
       </c>
@@ -7368,7 +7380,7 @@
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
     </row>
-    <row r="61" ht="15.6" spans="1:24">
+    <row r="61" ht="14.25" spans="1:24">
       <c r="A61" s="2">
         <v>1810</v>
       </c>
@@ -7423,7 +7435,7 @@
       <c r="W61" s="15"/>
       <c r="X61" s="15"/>
     </row>
-    <row r="62" ht="15.6" spans="1:24">
+    <row r="62" ht="14.25" spans="1:24">
       <c r="A62" s="2" t="s">
         <v>416</v>
       </c>
@@ -7478,7 +7490,7 @@
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
     </row>
-    <row r="63" ht="15.6" spans="1:23">
+    <row r="63" ht="14.25" spans="1:23">
       <c r="A63" s="2" t="s">
         <v>421</v>
       </c>
@@ -7532,7 +7544,7 @@
       </c>
       <c r="W63" s="15"/>
     </row>
-    <row r="64" ht="15.6" spans="1:24">
+    <row r="64" ht="14.25" spans="1:24">
       <c r="A64" s="2" t="s">
         <v>426</v>
       </c>
@@ -7587,7 +7599,7 @@
       <c r="W64" s="15"/>
       <c r="X64" s="15"/>
     </row>
-    <row r="65" ht="15.6" spans="1:24">
+    <row r="65" ht="14.25" spans="1:24">
       <c r="A65" s="2" t="s">
         <v>431</v>
       </c>
@@ -7642,7 +7654,7 @@
       <c r="W65" s="15"/>
       <c r="X65" s="15"/>
     </row>
-    <row r="66" ht="15.6" spans="1:24">
+    <row r="66" ht="14.25" spans="1:24">
       <c r="A66" s="2" t="s">
         <v>436</v>
       </c>
@@ -7697,7 +7709,7 @@
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
     </row>
-    <row r="67" ht="15.6" spans="1:24">
+    <row r="67" ht="14.25" spans="1:24">
       <c r="A67" s="2" t="s">
         <v>441</v>
       </c>
@@ -7752,7 +7764,7 @@
       <c r="W67" s="15"/>
       <c r="X67" s="15"/>
     </row>
-    <row r="68" ht="15.6" spans="1:24">
+    <row r="68" ht="14.25" spans="1:24">
       <c r="A68" s="2" t="s">
         <v>446</v>
       </c>
@@ -7807,7 +7819,7 @@
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
     </row>
-    <row r="69" ht="15.6" spans="1:24">
+    <row r="69" ht="14.25" spans="1:24">
       <c r="A69" s="2" t="s">
         <v>451</v>
       </c>
@@ -7862,7 +7874,7 @@
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
     </row>
-    <row r="70" ht="15.6" spans="1:23">
+    <row r="70" ht="14.25" spans="1:23">
       <c r="A70" s="2" t="s">
         <v>456</v>
       </c>
@@ -8393,7 +8405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" ht="15.6" spans="1:24">
+    <row r="80" ht="14.25" spans="1:24">
       <c r="A80" s="2" t="s">
         <v>506</v>
       </c>
@@ -8448,7 +8460,7 @@
       <c r="W80" s="15"/>
       <c r="X80" s="15"/>
     </row>
-    <row r="81" ht="15.6" spans="1:23">
+    <row r="81" ht="14.25" spans="1:23">
       <c r="A81" s="2" t="s">
         <v>511</v>
       </c>
@@ -8502,7 +8514,7 @@
       </c>
       <c r="W81" s="15"/>
     </row>
-    <row r="82" ht="15.6" spans="1:23">
+    <row r="82" ht="14.25" spans="1:23">
       <c r="A82" s="2" t="s">
         <v>516</v>
       </c>
@@ -8556,7 +8568,7 @@
       </c>
       <c r="W82" s="15"/>
     </row>
-    <row r="83" ht="15.6" spans="1:23">
+    <row r="83" ht="14.25" spans="1:23">
       <c r="A83" s="2" t="s">
         <v>522</v>
       </c>
@@ -8720,7 +8732,7 @@
       <c r="W85" s="15"/>
       <c r="X85" s="15"/>
     </row>
-    <row r="86" ht="15.6" spans="1:24">
+    <row r="86" ht="14.25" spans="1:24">
       <c r="A86" s="2" t="s">
         <v>538</v>
       </c>
@@ -8775,7 +8787,7 @@
       <c r="W86" s="15"/>
       <c r="X86" s="15"/>
     </row>
-    <row r="87" ht="15.6" spans="1:24">
+    <row r="87" ht="14.25" spans="1:24">
       <c r="A87" s="2" t="s">
         <v>543</v>
       </c>
@@ -8830,7 +8842,7 @@
       <c r="W87" s="15"/>
       <c r="X87" s="15"/>
     </row>
-    <row r="88" ht="15.6" spans="1:23">
+    <row r="88" ht="14.25" spans="1:23">
       <c r="A88" s="2" t="s">
         <v>548</v>
       </c>
@@ -8884,7 +8896,7 @@
       </c>
       <c r="W88" s="15"/>
     </row>
-    <row r="89" ht="15.6" spans="1:23">
+    <row r="89" ht="14.25" spans="1:23">
       <c r="A89" s="2" t="s">
         <v>553</v>
       </c>
@@ -9097,7 +9109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" ht="15.6" spans="1:24">
+    <row r="93" ht="14.25" spans="1:24">
       <c r="A93" s="2" t="s">
         <v>573</v>
       </c>
@@ -9152,7 +9164,7 @@
       <c r="W93" s="15"/>
       <c r="X93" s="15"/>
     </row>
-    <row r="94" ht="15.6" spans="1:24">
+    <row r="94" ht="14.25" spans="1:24">
       <c r="A94" s="2" t="s">
         <v>578</v>
       </c>
@@ -9207,7 +9219,7 @@
       <c r="W94" s="15"/>
       <c r="X94" s="15"/>
     </row>
-    <row r="95" ht="15.6" spans="1:24">
+    <row r="95" ht="14.25" spans="1:24">
       <c r="A95" s="2" t="s">
         <v>583</v>
       </c>
@@ -9262,7 +9274,7 @@
       <c r="W95" s="15"/>
       <c r="X95" s="15"/>
     </row>
-    <row r="96" ht="15.6" spans="1:23">
+    <row r="96" ht="14.25" spans="1:23">
       <c r="A96" s="2" t="s">
         <v>588</v>
       </c>
@@ -9328,7 +9340,7 @@
       </c>
       <c r="W96" s="15"/>
     </row>
-    <row r="97" ht="15.6" spans="1:23">
+    <row r="97" ht="14.25" spans="1:23">
       <c r="A97" s="2" t="s">
         <v>596</v>
       </c>
@@ -9394,7 +9406,7 @@
       </c>
       <c r="W97" s="15"/>
     </row>
-    <row r="98" ht="15.6" spans="1:23">
+    <row r="98" ht="14.25" spans="1:23">
       <c r="A98" s="2" t="s">
         <v>604</v>
       </c>
@@ -9460,7 +9472,7 @@
       </c>
       <c r="W98" s="15"/>
     </row>
-    <row r="99" ht="15.6" spans="1:23">
+    <row r="99" ht="14.25" spans="1:23">
       <c r="A99" s="2" t="s">
         <v>612</v>
       </c>
@@ -9526,7 +9538,7 @@
       </c>
       <c r="W99" s="15"/>
     </row>
-    <row r="100" ht="15.6" spans="1:23">
+    <row r="100" ht="14.25" spans="1:23">
       <c r="A100" s="2" t="s">
         <v>620</v>
       </c>
@@ -9592,7 +9604,7 @@
       </c>
       <c r="W100" s="15"/>
     </row>
-    <row r="101" ht="15.6" spans="1:23">
+    <row r="101" ht="14.25" spans="1:23">
       <c r="A101" s="2" t="s">
         <v>628</v>
       </c>
@@ -9658,7 +9670,7 @@
       </c>
       <c r="W101" s="15"/>
     </row>
-    <row r="102" ht="15.6" spans="1:23">
+    <row r="102" ht="14.25" spans="1:23">
       <c r="A102" s="7">
         <v>1010</v>
       </c>
@@ -9724,7 +9736,7 @@
       </c>
       <c r="W102" s="15"/>
     </row>
-    <row r="103" ht="15.6" spans="1:24">
+    <row r="103" ht="14.25" spans="1:24">
       <c r="A103" s="7">
         <v>1020</v>
       </c>
@@ -9848,7 +9860,7 @@
       </c>
       <c r="W104" s="15"/>
     </row>
-    <row r="105" ht="15.6" spans="1:23">
+    <row r="105" ht="14.25" spans="1:23">
       <c r="A105" s="2" t="s">
         <v>655</v>
       </c>
@@ -10126,7 +10138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="15.6" spans="1:23">
+    <row r="110" s="1" customFormat="1" ht="14.25" spans="1:23">
       <c r="A110" s="1" t="s">
         <v>678</v>
       </c>
@@ -10180,7 +10192,7 @@
       </c>
       <c r="W110" s="15"/>
     </row>
-    <row r="111" s="1" customFormat="1" ht="15.6" spans="1:23">
+    <row r="111" s="1" customFormat="1" ht="14.25" spans="1:23">
       <c r="A111" s="1" t="s">
         <v>683</v>
       </c>
@@ -10234,7 +10246,7 @@
       </c>
       <c r="W111" s="15"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="15.6" spans="1:23">
+    <row r="112" s="1" customFormat="1" ht="14.25" spans="1:23">
       <c r="A112" s="1" t="s">
         <v>688</v>
       </c>
@@ -10288,7 +10300,7 @@
       </c>
       <c r="W112" s="15"/>
     </row>
-    <row r="113" s="1" customFormat="1" ht="15.6" spans="1:23">
+    <row r="113" s="1" customFormat="1" ht="14.25" spans="1:23">
       <c r="A113" s="1" t="s">
         <v>693</v>
       </c>
@@ -10342,7 +10354,7 @@
       </c>
       <c r="W113" s="15"/>
     </row>
-    <row r="114" ht="15.6" spans="1:23">
+    <row r="114" ht="14.25" spans="1:23">
       <c r="A114" s="2">
         <v>3000</v>
       </c>
@@ -10588,7 +10600,7 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -10605,7 +10617,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
